--- a/Arquivos/APP BOLETINS TECNICOS.xlsx
+++ b/Arquivos/APP BOLETINS TECNICOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komatsuforest-my.sharepoint.com/personal/ramon_lara_komatsuforest_com/Documents/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komatsuforest-my.sharepoint.com/personal/ramon_lara_komatsuforest_com/Documents/Área de Trabalho/Ramon/App - TCK Informativos/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C379BE3C-BB77-48B8-BA3E-DEEACF2BE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{C379BE3C-BB77-48B8-BA3E-DEEACF2BE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB4DD40-D573-4596-842A-2AE751DC1070}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="480" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{D24D0FFF-8D2F-4CB0-8678-9D817879D2EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>APP boletins de ENG BTC</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>Modelos</t>
+  </si>
+  <si>
+    <t>S82, S92, S132, S172, 370E, C124, C144, C164, C202, SOUTHSTAR, LOGMAX, QUADCO, BRACKE</t>
+  </si>
+  <si>
+    <t>D61 PLANTER, PC210 PLANTER, PC240 PLANTER, D85, D155</t>
+  </si>
+  <si>
+    <t>TL775D, TN775D, TL755D, TN755D, SKIDDER 655, GUINCHO SUMMIT</t>
+  </si>
+  <si>
+    <t>MAXI XPLORER XT</t>
   </si>
 </sst>
 </file>
@@ -337,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +368,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -486,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -515,6 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,7 +552,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,14 +1030,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -1140,14 +1160,14 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -1429,7 +1449,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,102 +1471,102 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>60</v>
+      <c r="C5" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
+      <c r="C7" s="29" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>56</v>
+      <c r="C8" s="29" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="29" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>58</v>
+      <c r="C10" s="30" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/APP BOLETINS TECNICOS.xlsx
+++ b/Arquivos/APP BOLETINS TECNICOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komatsuforest-my.sharepoint.com/personal/ramon_lara_komatsuforest_com/Documents/Área de Trabalho/Ramon/App - TCK Informativos/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{C379BE3C-BB77-48B8-BA3E-DEEACF2BE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB4DD40-D573-4596-842A-2AE751DC1070}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{C379BE3C-BB77-48B8-BA3E-DEEACF2BE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD568BF4-0BFF-4B5E-A053-216786BB89FD}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="480" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{D24D0FFF-8D2F-4CB0-8678-9D817879D2EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
   <si>
     <t>APP boletins de ENG BTC</t>
   </si>
@@ -266,9 +266,6 @@
     <t>CONTROL SYSTEM</t>
   </si>
   <si>
-    <t>FELLER</t>
-  </si>
-  <si>
     <t>CODIGO</t>
   </si>
   <si>
@@ -287,12 +284,6 @@
     <t>cs</t>
   </si>
   <si>
-    <t>tp</t>
-  </si>
-  <si>
-    <t>fe</t>
-  </si>
-  <si>
     <t>si</t>
   </si>
   <si>
@@ -302,16 +293,46 @@
     <t>Modelos</t>
   </si>
   <si>
-    <t>S82, S92, S132, S172, 370E, C124, C144, C164, C202, SOUTHSTAR, LOGMAX, QUADCO, BRACKE</t>
-  </si>
-  <si>
-    <t>D61 PLANTER, PC210 PLANTER, PC240 PLANTER, D85, D155</t>
-  </si>
-  <si>
-    <t>TL775D, TN775D, TL755D, TN755D, SKIDDER 655, GUINCHO SUMMIT</t>
-  </si>
-  <si>
-    <t>MAXI XPLORER XT</t>
+    <t>911, 931, 931XC, 931XC TAW, TODOS</t>
+  </si>
+  <si>
+    <t>PC130, PC160, PC200F, PC210F, TODOS</t>
+  </si>
+  <si>
+    <t>S82, S92, S132, S172, 370E, C124, C144, C164, C202, SOUTHSTAR, LOGMAX, QUADCO, BRACKE, TODOS</t>
+  </si>
+  <si>
+    <t>PC160 LL, PC210 LL, HB365 LL , TODOS</t>
+  </si>
+  <si>
+    <t>MAXI XPLORER XT, TODOS</t>
+  </si>
+  <si>
+    <t>TL775D, TN775D, TL755D, TN755D, SKIDDER 655, GUINCHO SUMMIT, TODOS</t>
+  </si>
+  <si>
+    <t>PC350F FELLER, PC350F HARVESTER, TODOS</t>
+  </si>
+  <si>
+    <t>D61 PLANTER, PC210 PLANTER, PC240 PLANTER, D85, D155,TODOS</t>
+  </si>
+  <si>
+    <t>Boletins Técnicos</t>
+  </si>
+  <si>
+    <t>bt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULL TREE - TIMBERPRO GERAL </t>
+  </si>
+  <si>
+    <t>FULL TREE - FELLER</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>FORWARDER, HARVESTER, PC HARVESTER, CABEÇOTES, LOGLOADER, CONTROL SYSTEM, FULL TREE, SILVICULTURA, TODOS</t>
   </si>
 </sst>
 </file>
@@ -504,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -534,6 +555,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,8 +575,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,14 +1052,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -1160,14 +1182,14 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -1446,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093C0A1F-E237-4555-80F4-859F32531670}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,115 +1483,127 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>53</v>
+      <c r="C3" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>54</v>
+      <c r="C4" s="23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>87</v>
+      <c r="C5" s="23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
+      <c r="C6" s="23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>90</v>
+      <c r="C7" s="23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>57</v>
+        <v>95</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>88</v>
+      <c r="C10" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>